--- a/biology/Botanique/Orchidales/Orchidales.xlsx
+++ b/biology/Botanique/Orchidales/Orchidales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orchidales sont un ordre de plantes monocotylédones.
-En classification classique de Cronquist (1981)[1] elle comprend 4 familles :
+En classification classique de Cronquist (1981) elle comprend 4 familles :
 Burmanniacées
 Corsiacées
 Geosiridacées
 Orchidacées ou Orchidées
-Depuis la classification phylogénétique APG II (2003)[2] jusqu'à la classification phylogénétique APG IV (2016)[3], cet ordre n'existe pas. Par ailleurs, les Burmanniaceae sont incorporées aux Thismiaceae et les Geosiridaceae aux Iridaceae.
+Depuis la classification phylogénétique APG II (2003) jusqu'à la classification phylogénétique APG IV (2016), cet ordre n'existe pas. Par ailleurs, les Burmanniaceae sont incorporées aux Thismiaceae et les Geosiridaceae aux Iridaceae.
 </t>
         </is>
       </c>
